--- a/src/test/resources/features/rcbridge/ProviderRoster/Provider-Roster-49175121-Tue Nov 05 2019 04_14_26 GMT-0600 (CST).xlsx
+++ b/src/test/resources/features/rcbridge/ProviderRoster/Provider-Roster-49175121-Tue Nov 05 2019 04_14_26 GMT-0600 (CST).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>Add</t>
   </si>
@@ -1057,15 +1057,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15">
